--- a/302774378.xlsx
+++ b/302774378.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="856">
   <si>
     <t>Название</t>
   </si>
@@ -148,12 +148,34 @@
     <t>Таблица цен с 29.12.2024 по 02.02.2025</t>
   </si>
   <si>
+    <t>Мнение нейросети судя по отзывам</t>
+  </si>
+  <si>
+    <t>Похожие товары</t>
+  </si>
+  <si>
     <t>Дата</t>
   </si>
   <si>
     <t>Цена</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Общее впечатление — из отзывов можно сделать вывод, что общее впечатление о товаре неоднозначное. Некоторые пользователи довольны покупкой и считают, что кроссовки хорошего качества и удобные. Однако, есть и отрицательные отзывы, где пользователи жалуются на запах клея, непрофессиональное выполнение швов и подошвы, а также на размерные несоответствия.
+2. Преимущества — основные плюсы, которые упоминаются, это лёгкость и удобство кроссовок, а также их качество.
+3. Недостатки — ключевые минусы, выделенные в отзывах, это запах клея, непрофессиональное выполнение швов и подошвы, а также размерные несоответствия.
+4. Заключение — для тех, кто ищет лёгкие и удобные кроссовки, эти товары могут подойти. Однако, стоит учесть возможные недостатки, такие как запах клея и размерные несоответствия. Их оправдывает низкая цена, но есть риск получить товар низкого качества. При покупке стоит быть внимательным и учитывать отзывы, чтобы сделать правильный выбор.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Название основного товара: Мужские кроссовки с высоким качеством материалов и оригинальным дизайном.
+2. Описание: Эти унисекс кроссовки предлагают комфортную и стильную обувь благодаря прочному верху из текстиля и натуральной кожи. Мягкая подкладка и анатомическая стелька делают их идеальными для повседневной носки, занятий спортом и активного отдыха.
+3. Топ-5 похожих товаров:
+Товар 1 – Nike Air Max, [Кроссовки с дышащим верхом и амортизацией Air Max. Они также подходят для повседневной носки и обеспечивают комфорт благодаря мягкой подкладке и стильному дизайну.]
+Товар 2 – Adidas Ultraboost, [Спортивные кроссовки с текстильным верхом и технологии Boost, обеспечивающие отличную амортизацию. Идеально подходят для активного образа жизни и ежедневного использования.]
+Товар 3 – New Balance 574, [Классическая модель кроссовок с комбинацией замши и текстиля, которые обеспечивают комфорт и стиль. Подходят как для спорта, так и для повседневного ношения.]
+Товар 4 – Puma RS-X, [Модные кроссовки с ярким дизайном и комфортной подошвой. Выполнены из сочетания натуральной и синтетической кожи, что делает их похожими в плане стиля и долговечности.]
+Товар 5 – Reebok Club C, [Универсальные кроссовки со стильным дизайном и прочным кожаным верхом. Обеспечивают комфорт и поддержку, что делает их подходящими для повседневного ношения и активного отдыха.]</t>
+  </si>
+  <si>
     <t>29.12.2024</t>
   </si>
   <si>
@@ -190,6 +212,45 @@
     <t>Недостатки</t>
   </si>
   <si>
+    <t>Все понравилось</t>
+  </si>
+  <si>
+    <t>Быстрая доставка и нужный размер</t>
+  </si>
+  <si>
+    <t>Есть запах, но он выветривается. А так 5 из 5.</t>
+  </si>
+  <si>
+    <t>Деревянные!!! Запах ужас</t>
+  </si>
+  <si>
+    <t>Кроссы  кайф , за свои деньги самое то , брал 46 подошли , лёгкие как пух  удобные , ну и смотрятся нормас</t>
+  </si>
+  <si>
+    <t>Хрошие</t>
+  </si>
+  <si>
+    <t>Размер не подошел</t>
+  </si>
+  <si>
+    <t>Удобные</t>
+  </si>
+  <si>
+    <t>за эту цену наверно норм, но больше не купил бы</t>
+  </si>
+  <si>
+    <t>легкие, стильные, красивые</t>
+  </si>
+  <si>
+    <t>ноги потеют, нижняя часть подошвы отклеивается</t>
+  </si>
+  <si>
+    <t>Все понравилось, не подошло по размеру</t>
+  </si>
+  <si>
+    <t>Кросы хорошие,но отказ так как большемерят</t>
+  </si>
+  <si>
     <t>Спасибо, очень удобные, берите на два размера больше.</t>
   </si>
   <si>
@@ -199,10 +260,16 @@
     <t>Красовки нормальные, но не угадал с размером.</t>
   </si>
   <si>
+    <t>Ожидание и реальность не совпали</t>
+  </si>
+  <si>
     <t>Дикий запах и плохо склеянная подошва</t>
   </si>
   <si>
     <t>Дочке понравились. Размер соответствут. Спасибо</t>
+  </si>
+  <si>
+    <t>Не приятный запах</t>
   </si>
   <si>
     <t>Кроссы отличные. Размером ошибся</t>
@@ -1759,9 +1826,6 @@
     <t>Мужу понравились</t>
   </si>
   <si>
-    <t>Удобные</t>
-  </si>
-  <si>
     <t>Не подошел размер</t>
   </si>
   <si>
@@ -2550,15 +2614,6 @@
   </si>
   <si>
     <t>Хорошие спасибо, беру вторые</t>
-  </si>
-  <si>
-    <t>Мнение нейросети судя по отзывам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общее впечатление: Из отзывов можно сделать вывод, что большинство пользователей довольны покупкой, характеризуют товар как хороший, удобный и качественный. Однако некоторые отмечают проблемы с размером, а также неприятный запах.
-Преимущества: Чаще всего пользователи отмечают, что кроссовки легкие, удобные и хорошо смотрятся. Качество также набирает положительные оценки.
-Недостатки: Главным минусом, который был выделен в отзывах, является проблема с размером. Некоторые пользователи отмечают, что кроссовки маломерят на 1-2 размера. Также были упомянуты неприятный запах и некачественное шитье в некоторых случаях.
-Заключение: Для тех, кто ищет легкие и удобные кроссовки с хорошим качеством, данный товар может быть подходящим выбором. Однако стоит обратить внимание на проблему с размером и возможный запах. Несмотря на некоторые недостатки, цена товара является привлекательной, что делает его покупку оправданной в целом.</t>
   </si>
 </sst>
 </file>
@@ -2964,7 +3019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R735"/>
+  <dimension ref="A1:R743"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3113,7 +3168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -3122,18 +3177,30 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>2085</v>
@@ -3141,7 +3208,7 @@
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>2062.69</v>
@@ -3149,7 +3216,7 @@
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>2061.9</v>
@@ -3157,7 +3224,7 @@
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>2132.08</v>
@@ -3165,7 +3232,7 @@
     </row>
     <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>2101.38</v>
@@ -3173,7 +3240,7 @@
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>2058.67</v>
@@ -3181,27 +3248,27 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3209,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -3217,10 +3284,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -3228,7 +3295,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -3242,10 +3309,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,7 +3320,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
@@ -3261,13 +3328,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3275,21 +3342,21 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3297,7 +3364,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -3305,10 +3372,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
         <v>35</v>
@@ -3319,7 +3386,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
         <v>35</v>
@@ -3327,7 +3394,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -3338,10 +3405,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -3355,7 +3422,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3366,7 +3433,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3374,7 +3441,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
@@ -3382,24 +3449,24 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,10 +3474,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3418,29 +3485,29 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
@@ -3448,10 +3515,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -3459,7 +3526,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
@@ -3470,10 +3537,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
@@ -3484,10 +3551,10 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3495,18 +3562,18 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3514,7 +3581,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
@@ -3525,13 +3592,13 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,10 +3606,10 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,21 +3617,21 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,7 +3639,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -3580,24 +3647,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,18 +3672,18 @@
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -3624,10 +3691,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>35</v>
@@ -3635,10 +3702,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>35</v>
@@ -3646,10 +3713,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>35</v>
@@ -3657,10 +3724,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
         <v>35</v>
@@ -3671,7 +3738,7 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
@@ -3679,13 +3746,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,7 +3760,7 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
         <v>35</v>
@@ -3704,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -3712,43 +3779,43 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
         <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
         <v>35</v>
@@ -3756,10 +3823,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C71" t="s">
         <v>35</v>
@@ -3767,10 +3834,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
         <v>35</v>
@@ -3778,10 +3845,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
         <v>35</v>
@@ -3789,10 +3856,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
         <v>35</v>
@@ -3803,7 +3870,7 @@
         <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
         <v>35</v>
@@ -3811,10 +3878,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
         <v>35</v>
@@ -3825,7 +3892,7 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>35</v>
@@ -3836,18 +3903,18 @@
         <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -3855,7 +3922,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
         <v>35</v>
@@ -3866,10 +3933,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
@@ -3877,10 +3944,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C82" t="s">
         <v>35</v>
@@ -3891,7 +3958,7 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -3899,46 +3966,46 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,10 +4013,10 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,7 +4027,7 @@
         <v>145</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3968,18 +4035,18 @@
         <v>35</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
         <v>35</v>
@@ -3987,10 +4054,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="C92" t="s">
         <v>35</v>
@@ -4001,7 +4068,7 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
@@ -4012,7 +4079,7 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
@@ -4020,57 +4087,57 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
         <v>154</v>
-      </c>
-      <c r="C96" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,21 +4145,21 @@
         <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,7 +4167,7 @@
         <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
@@ -4108,10 +4175,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="C103" t="s">
         <v>35</v>
@@ -4122,7 +4189,7 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
         <v>35</v>
@@ -4130,21 +4197,21 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
         <v>35</v>
@@ -4152,13 +4219,13 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,7 +4233,7 @@
         <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
         <v>35</v>
@@ -4177,10 +4244,10 @@
         <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,7 +4255,7 @@
         <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C110" t="s">
         <v>35</v>
@@ -4196,13 +4263,13 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4210,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C112" t="s">
         <v>35</v>
@@ -4218,10 +4285,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
         <v>35</v>
@@ -4229,10 +4296,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="B114" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C114" t="s">
         <v>35</v>
@@ -4240,10 +4307,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="B115" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
       <c r="C115" t="s">
         <v>35</v>
@@ -4251,10 +4318,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
@@ -4262,24 +4329,24 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,18 +4354,18 @@
         <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="C120" t="s">
         <v>35</v>
@@ -4309,10 +4376,10 @@
         <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,7 +4387,7 @@
         <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C122" t="s">
         <v>35</v>
@@ -4328,13 +4395,13 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C123" t="s">
-        <v>85</v>
+        <v>194</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,7 +4409,7 @@
         <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
         <v>35</v>
@@ -4350,21 +4417,21 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="C125" t="s">
-        <v>192</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C126" t="s">
         <v>35</v>
@@ -4372,10 +4439,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
         <v>35</v>
@@ -4383,10 +4450,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
         <v>35</v>
@@ -4394,24 +4461,24 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="C129" t="s">
-        <v>198</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C130" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,7 +4486,7 @@
         <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
         <v>35</v>
@@ -4427,10 +4494,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="B132" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
         <v>35</v>
@@ -4441,10 +4508,10 @@
         <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,7 +4519,7 @@
         <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
         <v>35</v>
@@ -4463,10 +4530,10 @@
         <v>35</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C136" t="s">
         <v>35</v>
@@ -4482,24 +4549,24 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B137" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,43 +4574,43 @@
         <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="B141" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="C141" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,10 +4618,10 @@
         <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C143" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,7 +4629,7 @@
         <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C144" t="s">
         <v>35</v>
@@ -4570,35 +4637,35 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C145" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" t="s">
         <v>225</v>
-      </c>
-      <c r="B147" t="s">
-        <v>226</v>
-      </c>
-      <c r="C147" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,7 +4673,7 @@
         <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C148" t="s">
         <v>35</v>
@@ -4614,10 +4681,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B149" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
         <v>35</v>
@@ -4631,106 +4698,106 @@
         <v>228</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="B151" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" t="s">
         <v>230</v>
-      </c>
-      <c r="C151" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>231</v>
+      </c>
+      <c r="B152" t="s">
         <v>232</v>
       </c>
-      <c r="B152" t="s">
-        <v>35</v>
-      </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>35</v>
       </c>
       <c r="B153" t="s">
         <v>234</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="C154" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>238</v>
+        <v>35</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C155" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="B156" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C156" t="s">
-        <v>243</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="B157" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,7 +4805,7 @@
         <v>35</v>
       </c>
       <c r="B160" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C160" t="s">
         <v>35</v>
@@ -4746,13 +4813,13 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="B161" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="C161" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,7 +4827,7 @@
         <v>35</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C162" t="s">
         <v>35</v>
@@ -4768,57 +4835,57 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="B163" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="C163" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B164" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="C164" t="s">
-        <v>256</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
+        <v>258</v>
+      </c>
+      <c r="C167" t="s">
         <v>259</v>
-      </c>
-      <c r="C167" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4845,13 +4912,13 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
       <c r="C170" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,10 +4926,10 @@
         <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="C171" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,21 +4937,21 @@
         <v>35</v>
       </c>
       <c r="B172" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C172" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,7 +4959,7 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C174" t="s">
         <v>35</v>
@@ -4903,21 +4970,21 @@
         <v>35</v>
       </c>
       <c r="B175" t="s">
-        <v>267</v>
+        <v>35</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,7 +4992,7 @@
         <v>35</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C177" t="s">
         <v>35</v>
@@ -4936,7 +5003,7 @@
         <v>35</v>
       </c>
       <c r="B178" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C178" t="s">
         <v>35</v>
@@ -4944,32 +5011,32 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>35</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C179" t="s">
-        <v>273</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>275</v>
+        <v>35</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>282</v>
       </c>
       <c r="C181" t="s">
         <v>35</v>
@@ -4977,13 +5044,13 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="B182" t="s">
         <v>35</v>
       </c>
       <c r="C182" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,21 +5058,21 @@
         <v>35</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>278</v>
+        <v>35</v>
       </c>
       <c r="B184" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,7 +5080,7 @@
         <v>35</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C185" t="s">
         <v>35</v>
@@ -5024,7 +5091,7 @@
         <v>35</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C186" t="s">
         <v>35</v>
@@ -5032,10 +5099,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>281</v>
+        <v>35</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="C187" t="s">
         <v>35</v>
@@ -5046,7 +5113,7 @@
         <v>35</v>
       </c>
       <c r="B188" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C188" t="s">
         <v>35</v>
@@ -5054,10 +5121,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="B189" t="s">
-        <v>35</v>
+        <v>288</v>
       </c>
       <c r="C189" t="s">
         <v>35</v>
@@ -5065,10 +5132,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="B190" t="s">
-        <v>35</v>
+        <v>289</v>
       </c>
       <c r="C190" t="s">
         <v>35</v>
@@ -5076,13 +5143,13 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="B191" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="C191" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -5090,7 +5157,7 @@
         <v>35</v>
       </c>
       <c r="B192" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C192" t="s">
         <v>35</v>
@@ -5098,10 +5165,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="B193" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="C193" t="s">
         <v>35</v>
@@ -5109,21 +5176,21 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>287</v>
+        <v>35</v>
       </c>
       <c r="B195" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="C195" t="s">
         <v>35</v>
@@ -5131,24 +5198,24 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>35</v>
+        <v>297</v>
       </c>
       <c r="B196" t="s">
-        <v>288</v>
+        <v>35</v>
       </c>
       <c r="C196" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="C197" t="s">
-        <v>291</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -5156,7 +5223,7 @@
         <v>35</v>
       </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C198" t="s">
         <v>35</v>
@@ -5164,10 +5231,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="C199" t="s">
         <v>35</v>
@@ -5175,21 +5242,21 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="B200" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>35</v>
       </c>
       <c r="C201" t="s">
         <v>35</v>
@@ -5197,32 +5264,32 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="C202" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="B203" t="s">
         <v>35</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="C204" t="s">
         <v>35</v>
@@ -5230,21 +5297,21 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="B205" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C205" t="s">
-        <v>301</v>
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="B206" t="s">
-        <v>35</v>
+        <v>280</v>
       </c>
       <c r="C206" t="s">
         <v>35</v>
@@ -5252,10 +5319,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="B207" t="s">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="C207" t="s">
         <v>35</v>
@@ -5266,21 +5333,21 @@
         <v>35</v>
       </c>
       <c r="B208" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="B209" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="C209" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5288,7 +5355,7 @@
         <v>35</v>
       </c>
       <c r="B210" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C210" t="s">
         <v>35</v>
@@ -5299,7 +5366,7 @@
         <v>35</v>
       </c>
       <c r="B211" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C211" t="s">
         <v>35</v>
@@ -5307,13 +5374,13 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="B212" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,7 +5388,7 @@
         <v>35</v>
       </c>
       <c r="B213" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C213" t="s">
         <v>35</v>
@@ -5332,15 +5399,15 @@
         <v>35</v>
       </c>
       <c r="B214" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B215" t="s">
         <v>35</v>
@@ -5351,10 +5418,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="B216" t="s">
-        <v>312</v>
+        <v>35</v>
       </c>
       <c r="C216" t="s">
         <v>35</v>
@@ -5362,21 +5429,21 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="B217" t="s">
-        <v>35</v>
+        <v>319</v>
       </c>
       <c r="C217" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>321</v>
       </c>
       <c r="B218" t="s">
-        <v>314</v>
+        <v>35</v>
       </c>
       <c r="C218" t="s">
         <v>35</v>
@@ -5387,7 +5454,7 @@
         <v>35</v>
       </c>
       <c r="B219" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C219" t="s">
         <v>35</v>
@@ -5395,10 +5462,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="B220" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
       <c r="C220" t="s">
         <v>35</v>
@@ -5412,29 +5479,29 @@
         <v>35</v>
       </c>
       <c r="C221" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="C222" t="s">
-        <v>319</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="B223" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C223" t="s">
-        <v>322</v>
+        <v>35</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,7 +5509,7 @@
         <v>35</v>
       </c>
       <c r="B224" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C224" t="s">
         <v>35</v>
@@ -5453,7 +5520,7 @@
         <v>35</v>
       </c>
       <c r="B225" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C225" t="s">
         <v>35</v>
@@ -5461,10 +5528,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>325</v>
+        <v>35</v>
       </c>
       <c r="B226" t="s">
-        <v>35</v>
+        <v>329</v>
       </c>
       <c r="C226" t="s">
         <v>35</v>
@@ -5472,10 +5539,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>35</v>
+        <v>330</v>
       </c>
       <c r="B227" t="s">
-        <v>326</v>
+        <v>35</v>
       </c>
       <c r="C227" t="s">
         <v>35</v>
@@ -5486,7 +5553,7 @@
         <v>35</v>
       </c>
       <c r="B228" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C228" t="s">
         <v>35</v>
@@ -5497,10 +5564,10 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>328</v>
+        <v>35</v>
       </c>
       <c r="C229" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,7 +5575,7 @@
         <v>35</v>
       </c>
       <c r="B230" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C230" t="s">
         <v>35</v>
@@ -5516,10 +5583,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>331</v>
+        <v>35</v>
       </c>
       <c r="B231" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="C231" t="s">
         <v>35</v>
@@ -5527,7 +5594,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B232" t="s">
         <v>35</v>
@@ -5541,32 +5608,32 @@
         <v>35</v>
       </c>
       <c r="B233" t="s">
-        <v>332</v>
+        <v>35</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
       <c r="B234" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
       <c r="C234" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="B235" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5574,7 +5641,7 @@
         <v>35</v>
       </c>
       <c r="B236" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C236" t="s">
         <v>35</v>
@@ -5585,7 +5652,7 @@
         <v>35</v>
       </c>
       <c r="B237" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C237" t="s">
         <v>35</v>
@@ -5593,13 +5660,13 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>344</v>
       </c>
       <c r="B238" t="s">
         <v>35</v>
       </c>
       <c r="C238" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,7 +5674,7 @@
         <v>35</v>
       </c>
       <c r="B239" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C239" t="s">
         <v>35</v>
@@ -5618,7 +5685,7 @@
         <v>35</v>
       </c>
       <c r="B240" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C240" t="s">
         <v>35</v>
@@ -5626,13 +5693,13 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="B241" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C241" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,7 +5707,7 @@
         <v>35</v>
       </c>
       <c r="B242" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C242" t="s">
         <v>35</v>
@@ -5648,10 +5715,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="B243" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c r="C243" t="s">
         <v>35</v>
@@ -5659,10 +5726,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="B244" t="s">
-        <v>345</v>
+        <v>35</v>
       </c>
       <c r="C244" t="s">
         <v>35</v>
@@ -5673,10 +5740,10 @@
         <v>35</v>
       </c>
       <c r="B245" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C245" t="s">
-        <v>347</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5684,10 +5751,10 @@
         <v>35</v>
       </c>
       <c r="B246" t="s">
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="C246" t="s">
-        <v>35</v>
+        <v>352</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5695,7 +5762,7 @@
         <v>35</v>
       </c>
       <c r="B247" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C247" t="s">
         <v>35</v>
@@ -5703,13 +5770,13 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C248" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5717,7 +5784,7 @@
         <v>35</v>
       </c>
       <c r="B249" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C249" t="s">
         <v>35</v>
@@ -5725,21 +5792,21 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>353</v>
+        <v>35</v>
       </c>
       <c r="B250" t="s">
-        <v>354</v>
+        <v>35</v>
       </c>
       <c r="C250" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>356</v>
+        <v>35</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
+        <v>357</v>
       </c>
       <c r="C251" t="s">
         <v>35</v>
@@ -5750,21 +5817,21 @@
         <v>35</v>
       </c>
       <c r="B252" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C252" t="s">
-        <v>358</v>
+        <v>35</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>35</v>
+        <v>359</v>
       </c>
       <c r="B253" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C253" t="s">
-        <v>35</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -5772,10 +5839,10 @@
         <v>35</v>
       </c>
       <c r="B254" t="s">
-        <v>35</v>
+        <v>362</v>
       </c>
       <c r="C254" t="s">
-        <v>360</v>
+        <v>35</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -5783,10 +5850,10 @@
         <v>35</v>
       </c>
       <c r="B255" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C255" t="s">
-        <v>362</v>
+        <v>35</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5794,7 +5861,7 @@
         <v>35</v>
       </c>
       <c r="B256" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C256" t="s">
         <v>35</v>
@@ -5805,10 +5872,10 @@
         <v>35</v>
       </c>
       <c r="B257" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C257" t="s">
-        <v>35</v>
+        <v>366</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,7 +5883,7 @@
         <v>35</v>
       </c>
       <c r="B258" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C258" t="s">
         <v>35</v>
@@ -5827,7 +5894,7 @@
         <v>35</v>
       </c>
       <c r="B259" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C259" t="s">
         <v>35</v>
@@ -5835,21 +5902,21 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>35</v>
+        <v>369</v>
       </c>
       <c r="B260" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="C260" t="s">
-        <v>367</v>
+        <v>220</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>368</v>
+        <v>35</v>
       </c>
       <c r="B261" t="s">
-        <v>35</v>
+        <v>371</v>
       </c>
       <c r="C261" t="s">
         <v>35</v>
@@ -5857,24 +5924,24 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>35</v>
+        <v>372</v>
       </c>
       <c r="B262" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C262" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B263" t="s">
-        <v>371</v>
+        <v>35</v>
       </c>
       <c r="C263" t="s">
-        <v>372</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5882,10 +5949,10 @@
         <v>35</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C264" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -5893,10 +5960,10 @@
         <v>35</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>378</v>
       </c>
       <c r="C265" t="s">
-        <v>374</v>
+        <v>35</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5904,10 +5971,10 @@
         <v>35</v>
       </c>
       <c r="B266" t="s">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="C266" t="s">
-        <v>85</v>
+        <v>379</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -5915,10 +5982,10 @@
         <v>35</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="C267" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5926,7 +5993,7 @@
         <v>35</v>
       </c>
       <c r="B268" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C268" t="s">
         <v>35</v>
@@ -5937,7 +6004,7 @@
         <v>35</v>
       </c>
       <c r="B269" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C269" t="s">
         <v>35</v>
@@ -5948,7 +6015,7 @@
         <v>35</v>
       </c>
       <c r="B270" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C270" t="s">
         <v>35</v>
@@ -5959,7 +6026,7 @@
         <v>35</v>
       </c>
       <c r="B271" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C271" t="s">
         <v>35</v>
@@ -5970,18 +6037,18 @@
         <v>35</v>
       </c>
       <c r="B272" t="s">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="C272" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>35</v>
+        <v>387</v>
       </c>
       <c r="B273" t="s">
-        <v>381</v>
+        <v>35</v>
       </c>
       <c r="C273" t="s">
         <v>35</v>
@@ -5992,7 +6059,7 @@
         <v>35</v>
       </c>
       <c r="B274" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C274" t="s">
         <v>35</v>
@@ -6000,24 +6067,24 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="C275" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="B276" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C276" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -6025,10 +6092,10 @@
         <v>35</v>
       </c>
       <c r="B277" t="s">
-        <v>386</v>
+        <v>35</v>
       </c>
       <c r="C277" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -6036,10 +6103,10 @@
         <v>35</v>
       </c>
       <c r="B278" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C278" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -6047,10 +6114,10 @@
         <v>35</v>
       </c>
       <c r="B279" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="C279" t="s">
-        <v>389</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -6058,7 +6125,7 @@
         <v>35</v>
       </c>
       <c r="B280" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C280" t="s">
         <v>35</v>
@@ -6069,7 +6136,7 @@
         <v>35</v>
       </c>
       <c r="B281" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C281" t="s">
         <v>35</v>
@@ -6080,10 +6147,10 @@
         <v>35</v>
       </c>
       <c r="B282" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C282" t="s">
-        <v>393</v>
+        <v>35</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,7 +6158,7 @@
         <v>35</v>
       </c>
       <c r="B283" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C283" t="s">
         <v>35</v>
@@ -6099,10 +6166,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>395</v>
+        <v>35</v>
       </c>
       <c r="B284" t="s">
-        <v>35</v>
+        <v>399</v>
       </c>
       <c r="C284" t="s">
         <v>35</v>
@@ -6113,7 +6180,7 @@
         <v>35</v>
       </c>
       <c r="B285" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C285" t="s">
         <v>35</v>
@@ -6124,7 +6191,7 @@
         <v>35</v>
       </c>
       <c r="B286" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C286" t="s">
         <v>35</v>
@@ -6132,32 +6199,32 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>35</v>
+        <v>402</v>
       </c>
       <c r="B287" t="s">
-        <v>398</v>
+        <v>35</v>
       </c>
       <c r="C287" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>35</v>
+        <v>403</v>
       </c>
       <c r="B288" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C288" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="B289" t="s">
-        <v>35</v>
+        <v>405</v>
       </c>
       <c r="C289" t="s">
         <v>35</v>
@@ -6165,13 +6232,13 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>35</v>
       </c>
       <c r="B290" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C290" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -6179,10 +6246,10 @@
         <v>35</v>
       </c>
       <c r="B291" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C291" t="s">
-        <v>35</v>
+        <v>408</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -6190,7 +6257,7 @@
         <v>35</v>
       </c>
       <c r="B292" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C292" t="s">
         <v>35</v>
@@ -6201,7 +6268,7 @@
         <v>35</v>
       </c>
       <c r="B293" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C293" t="s">
         <v>35</v>
@@ -6209,13 +6276,13 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>406</v>
+        <v>35</v>
       </c>
       <c r="B294" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C294" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -6223,7 +6290,7 @@
         <v>35</v>
       </c>
       <c r="B295" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C295" t="s">
         <v>35</v>
@@ -6231,10 +6298,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>35</v>
+        <v>414</v>
       </c>
       <c r="B296" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="C296" t="s">
         <v>35</v>
@@ -6245,7 +6312,7 @@
         <v>35</v>
       </c>
       <c r="B297" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C297" t="s">
         <v>35</v>
@@ -6256,7 +6323,7 @@
         <v>35</v>
       </c>
       <c r="B298" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C298" t="s">
         <v>35</v>
@@ -6264,13 +6331,13 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>413</v>
+        <v>35</v>
       </c>
       <c r="B299" t="s">
-        <v>35</v>
+        <v>417</v>
       </c>
       <c r="C299" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -6278,7 +6345,7 @@
         <v>35</v>
       </c>
       <c r="B300" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C300" t="s">
         <v>35</v>
@@ -6286,10 +6353,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>35</v>
+        <v>419</v>
       </c>
       <c r="B301" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="C301" t="s">
         <v>35</v>
@@ -6297,13 +6364,13 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
       <c r="B302" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C302" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -6311,7 +6378,7 @@
         <v>35</v>
       </c>
       <c r="B303" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C303" t="s">
         <v>35</v>
@@ -6319,13 +6386,13 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>418</v>
+        <v>35</v>
       </c>
       <c r="B304" t="s">
-        <v>248</v>
+        <v>423</v>
       </c>
       <c r="C304" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -6333,7 +6400,7 @@
         <v>35</v>
       </c>
       <c r="B305" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C305" t="s">
         <v>35</v>
@@ -6341,13 +6408,13 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>35</v>
+        <v>425</v>
       </c>
       <c r="B306" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C306" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -6355,7 +6422,7 @@
         <v>35</v>
       </c>
       <c r="B307" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C307" t="s">
         <v>35</v>
@@ -6366,18 +6433,18 @@
         <v>35</v>
       </c>
       <c r="B308" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C308" t="s">
-        <v>425</v>
+        <v>35</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>426</v>
+        <v>35</v>
       </c>
       <c r="B309" t="s">
-        <v>35</v>
+        <v>430</v>
       </c>
       <c r="C309" t="s">
         <v>35</v>
@@ -6385,32 +6452,32 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>427</v>
+        <v>35</v>
       </c>
       <c r="B310" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C310" t="s">
-        <v>429</v>
+        <v>35</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B311" t="s">
-        <v>428</v>
+        <v>35</v>
       </c>
       <c r="C311" t="s">
-        <v>429</v>
+        <v>35</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>431</v>
+        <v>35</v>
       </c>
       <c r="B312" t="s">
-        <v>35</v>
+        <v>433</v>
       </c>
       <c r="C312" t="s">
         <v>35</v>
@@ -6418,10 +6485,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>432</v>
+        <v>35</v>
       </c>
       <c r="B313" t="s">
-        <v>35</v>
+        <v>434</v>
       </c>
       <c r="C313" t="s">
         <v>35</v>
@@ -6432,10 +6499,10 @@
         <v>35</v>
       </c>
       <c r="B314" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C314" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -6443,7 +6510,7 @@
         <v>35</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C315" t="s">
         <v>35</v>
@@ -6451,21 +6518,21 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B316" t="s">
-        <v>35</v>
+        <v>267</v>
       </c>
       <c r="C316" t="s">
-        <v>35</v>
+        <v>438</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>436</v>
+        <v>35</v>
       </c>
       <c r="B317" t="s">
-        <v>35</v>
+        <v>439</v>
       </c>
       <c r="C317" t="s">
         <v>35</v>
@@ -6473,21 +6540,21 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>35</v>
       </c>
       <c r="B318" t="s">
-        <v>35</v>
+        <v>440</v>
       </c>
       <c r="C318" t="s">
-        <v>35</v>
+        <v>441</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="B319" t="s">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="C319" t="s">
         <v>35</v>
@@ -6495,54 +6562,54 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="B320" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>35</v>
+        <v>445</v>
       </c>
       <c r="B321" t="s">
-        <v>442</v>
+        <v>35</v>
       </c>
       <c r="C321" t="s">
-        <v>443</v>
+        <v>35</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B322" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C322" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>35</v>
+        <v>449</v>
       </c>
       <c r="B323" t="s">
         <v>447</v>
       </c>
       <c r="C323" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="B324" t="s">
-        <v>448</v>
+        <v>35</v>
       </c>
       <c r="C324" t="s">
         <v>35</v>
@@ -6550,10 +6617,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="B325" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="C325" t="s">
         <v>35</v>
@@ -6564,18 +6631,18 @@
         <v>35</v>
       </c>
       <c r="B326" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C326" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>451</v>
+        <v>35</v>
       </c>
       <c r="B327" t="s">
-        <v>35</v>
+        <v>453</v>
       </c>
       <c r="C327" t="s">
         <v>35</v>
@@ -6583,10 +6650,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>35</v>
+        <v>454</v>
       </c>
       <c r="B328" t="s">
-        <v>452</v>
+        <v>35</v>
       </c>
       <c r="C328" t="s">
         <v>35</v>
@@ -6594,7 +6661,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B329" t="s">
         <v>35</v>
@@ -6605,10 +6672,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>35</v>
+        <v>456</v>
       </c>
       <c r="B330" t="s">
-        <v>454</v>
+        <v>35</v>
       </c>
       <c r="C330" t="s">
         <v>35</v>
@@ -6616,7 +6683,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B331" t="s">
         <v>35</v>
@@ -6627,13 +6694,13 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>35</v>
+        <v>458</v>
       </c>
       <c r="B332" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C332" t="s">
-        <v>35</v>
+        <v>460</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -6641,21 +6708,21 @@
         <v>35</v>
       </c>
       <c r="B333" t="s">
-        <v>35</v>
+        <v>461</v>
       </c>
       <c r="C333" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>35</v>
+        <v>463</v>
       </c>
       <c r="B334" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="C334" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -6663,7 +6730,7 @@
         <v>35</v>
       </c>
       <c r="B335" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="C335" t="s">
         <v>35</v>
@@ -6671,10 +6738,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>460</v>
+        <v>35</v>
       </c>
       <c r="B336" t="s">
-        <v>35</v>
+        <v>467</v>
       </c>
       <c r="C336" t="s">
         <v>35</v>
@@ -6685,10 +6752,10 @@
         <v>35</v>
       </c>
       <c r="B337" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C337" t="s">
-        <v>462</v>
+        <v>35</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -6696,7 +6763,7 @@
         <v>35</v>
       </c>
       <c r="B338" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C338" t="s">
         <v>35</v>
@@ -6704,10 +6771,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>35</v>
+        <v>470</v>
       </c>
       <c r="B339" t="s">
-        <v>464</v>
+        <v>35</v>
       </c>
       <c r="C339" t="s">
         <v>35</v>
@@ -6718,15 +6785,15 @@
         <v>35</v>
       </c>
       <c r="B340" t="s">
-        <v>195</v>
+        <v>471</v>
       </c>
       <c r="C340" t="s">
-        <v>465</v>
+        <v>35</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B341" t="s">
         <v>35</v>
@@ -6740,7 +6807,7 @@
         <v>35</v>
       </c>
       <c r="B342" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C342" t="s">
         <v>35</v>
@@ -6748,13 +6815,13 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>35</v>
+        <v>474</v>
       </c>
       <c r="B343" t="s">
         <v>35</v>
       </c>
       <c r="C343" t="s">
-        <v>468</v>
+        <v>35</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -6762,7 +6829,7 @@
         <v>35</v>
       </c>
       <c r="B344" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C344" t="s">
         <v>35</v>
@@ -6773,10 +6840,10 @@
         <v>35</v>
       </c>
       <c r="B345" t="s">
-        <v>470</v>
+        <v>35</v>
       </c>
       <c r="C345" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -6784,10 +6851,10 @@
         <v>35</v>
       </c>
       <c r="B346" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C346" t="s">
-        <v>35</v>
+        <v>477</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -6795,15 +6862,15 @@
         <v>35</v>
       </c>
       <c r="B347" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C347" t="s">
-        <v>473</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B348" t="s">
         <v>35</v>
@@ -6817,32 +6884,32 @@
         <v>35</v>
       </c>
       <c r="B349" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C349" t="s">
-        <v>35</v>
+        <v>481</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>476</v>
+        <v>35</v>
       </c>
       <c r="B350" t="s">
-        <v>46</v>
+        <v>482</v>
       </c>
       <c r="C350" t="s">
-        <v>477</v>
+        <v>35</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>478</v>
+        <v>35</v>
       </c>
       <c r="B351" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C351" t="s">
-        <v>480</v>
+        <v>35</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -6850,15 +6917,15 @@
         <v>35</v>
       </c>
       <c r="B352" t="s">
-        <v>481</v>
+        <v>214</v>
       </c>
       <c r="C352" t="s">
-        <v>35</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B353" t="s">
         <v>35</v>
@@ -6869,10 +6936,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>483</v>
+        <v>35</v>
       </c>
       <c r="B354" t="s">
-        <v>35</v>
+        <v>486</v>
       </c>
       <c r="C354" t="s">
         <v>35</v>
@@ -6883,18 +6950,18 @@
         <v>35</v>
       </c>
       <c r="B355" t="s">
-        <v>484</v>
+        <v>35</v>
       </c>
       <c r="C355" t="s">
-        <v>35</v>
+        <v>487</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>485</v>
+        <v>35</v>
       </c>
       <c r="B356" t="s">
-        <v>35</v>
+        <v>488</v>
       </c>
       <c r="C356" t="s">
         <v>35</v>
@@ -6905,7 +6972,7 @@
         <v>35</v>
       </c>
       <c r="B357" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C357" t="s">
         <v>35</v>
@@ -6913,10 +6980,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>487</v>
+        <v>35</v>
       </c>
       <c r="B358" t="s">
-        <v>35</v>
+        <v>490</v>
       </c>
       <c r="C358" t="s">
         <v>35</v>
@@ -6924,21 +6991,21 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>488</v>
+        <v>35</v>
       </c>
       <c r="B359" t="s">
-        <v>35</v>
+        <v>491</v>
       </c>
       <c r="C359" t="s">
-        <v>35</v>
+        <v>492</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>35</v>
+        <v>493</v>
       </c>
       <c r="B360" t="s">
-        <v>489</v>
+        <v>35</v>
       </c>
       <c r="C360" t="s">
         <v>35</v>
@@ -6949,7 +7016,7 @@
         <v>35</v>
       </c>
       <c r="B361" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C361" t="s">
         <v>35</v>
@@ -6957,32 +7024,32 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>35</v>
+        <v>495</v>
       </c>
       <c r="B362" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C362" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B363" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C363" t="s">
-        <v>35</v>
+        <v>499</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>494</v>
+        <v>35</v>
       </c>
       <c r="B364" t="s">
-        <v>35</v>
+        <v>500</v>
       </c>
       <c r="C364" t="s">
         <v>35</v>
@@ -6990,10 +7057,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>35</v>
+        <v>501</v>
       </c>
       <c r="B365" t="s">
-        <v>495</v>
+        <v>35</v>
       </c>
       <c r="C365" t="s">
         <v>35</v>
@@ -7001,10 +7068,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>35</v>
+        <v>502</v>
       </c>
       <c r="B366" t="s">
-        <v>496</v>
+        <v>35</v>
       </c>
       <c r="C366" t="s">
         <v>35</v>
@@ -7012,10 +7079,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>497</v>
+        <v>35</v>
       </c>
       <c r="B367" t="s">
-        <v>35</v>
+        <v>503</v>
       </c>
       <c r="C367" t="s">
         <v>35</v>
@@ -7023,7 +7090,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>272</v>
+        <v>504</v>
       </c>
       <c r="B368" t="s">
         <v>35</v>
@@ -7037,7 +7104,7 @@
         <v>35</v>
       </c>
       <c r="B369" t="s">
-        <v>276</v>
+        <v>505</v>
       </c>
       <c r="C369" t="s">
         <v>35</v>
@@ -7045,7 +7112,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B370" t="s">
         <v>35</v>
@@ -7056,13 +7123,13 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>35</v>
+        <v>507</v>
       </c>
       <c r="B371" t="s">
         <v>35</v>
       </c>
       <c r="C371" t="s">
-        <v>499</v>
+        <v>35</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -7070,7 +7137,7 @@
         <v>35</v>
       </c>
       <c r="B372" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C372" t="s">
         <v>35</v>
@@ -7081,7 +7148,7 @@
         <v>35</v>
       </c>
       <c r="B373" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C373" t="s">
         <v>35</v>
@@ -7092,18 +7159,18 @@
         <v>35</v>
       </c>
       <c r="B374" t="s">
-        <v>502</v>
+        <v>35</v>
       </c>
       <c r="C374" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>35</v>
+        <v>511</v>
       </c>
       <c r="B375" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="C375" t="s">
         <v>35</v>
@@ -7111,7 +7178,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B376" t="s">
         <v>35</v>
@@ -7125,7 +7192,7 @@
         <v>35</v>
       </c>
       <c r="B377" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="C377" t="s">
         <v>35</v>
@@ -7136,7 +7203,7 @@
         <v>35</v>
       </c>
       <c r="B378" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C378" t="s">
         <v>35</v>
@@ -7144,10 +7211,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>35</v>
+        <v>516</v>
       </c>
       <c r="B379" t="s">
-        <v>508</v>
+        <v>35</v>
       </c>
       <c r="C379" t="s">
         <v>35</v>
@@ -7155,10 +7222,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="B380" t="s">
-        <v>509</v>
+        <v>35</v>
       </c>
       <c r="C380" t="s">
         <v>35</v>
@@ -7166,35 +7233,35 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>510</v>
+        <v>35</v>
       </c>
       <c r="B381" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="C381" t="s">
-        <v>511</v>
+        <v>35</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B382" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="C382" t="s">
-        <v>513</v>
+        <v>35</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>514</v>
+        <v>35</v>
       </c>
       <c r="B383" t="s">
-        <v>515</v>
+        <v>35</v>
       </c>
       <c r="C383" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -7202,7 +7269,7 @@
         <v>35</v>
       </c>
       <c r="B384" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C384" t="s">
         <v>35</v>
@@ -7210,10 +7277,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>518</v>
+        <v>35</v>
       </c>
       <c r="B385" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C385" t="s">
         <v>35</v>
@@ -7221,13 +7288,13 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>520</v>
+        <v>35</v>
       </c>
       <c r="B386" t="s">
         <v>521</v>
       </c>
       <c r="C386" t="s">
-        <v>441</v>
+        <v>522</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -7235,7 +7302,7 @@
         <v>35</v>
       </c>
       <c r="B387" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C387" t="s">
         <v>35</v>
@@ -7243,10 +7310,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>35</v>
+        <v>524</v>
       </c>
       <c r="B388" t="s">
-        <v>523</v>
+        <v>35</v>
       </c>
       <c r="C388" t="s">
         <v>35</v>
@@ -7257,10 +7324,10 @@
         <v>35</v>
       </c>
       <c r="B389" t="s">
-        <v>35</v>
+        <v>525</v>
       </c>
       <c r="C389" t="s">
-        <v>524</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -7268,7 +7335,7 @@
         <v>35</v>
       </c>
       <c r="B390" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C390" t="s">
         <v>35</v>
@@ -7276,21 +7343,21 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>526</v>
+        <v>35</v>
       </c>
       <c r="B391" t="s">
         <v>527</v>
       </c>
       <c r="C391" t="s">
-        <v>528</v>
+        <v>35</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>529</v>
+        <v>35</v>
       </c>
       <c r="B392" t="s">
-        <v>35</v>
+        <v>528</v>
       </c>
       <c r="C392" t="s">
         <v>35</v>
@@ -7298,35 +7365,35 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>35</v>
+        <v>529</v>
       </c>
       <c r="B393" t="s">
+        <v>220</v>
+      </c>
+      <c r="C393" t="s">
         <v>530</v>
-      </c>
-      <c r="C393" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>35</v>
+        <v>531</v>
       </c>
       <c r="B394" t="s">
-        <v>531</v>
+        <v>220</v>
       </c>
       <c r="C394" t="s">
-        <v>35</v>
+        <v>532</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>35</v>
+        <v>533</v>
       </c>
       <c r="B395" t="s">
-        <v>35</v>
+        <v>534</v>
       </c>
       <c r="C395" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -7334,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="B396" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C396" t="s">
         <v>35</v>
@@ -7342,10 +7409,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B397" t="s">
-        <v>35</v>
+        <v>538</v>
       </c>
       <c r="C397" t="s">
         <v>35</v>
@@ -7353,13 +7420,13 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B398" t="s">
-        <v>35</v>
+        <v>540</v>
       </c>
       <c r="C398" t="s">
-        <v>35</v>
+        <v>460</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -7367,21 +7434,21 @@
         <v>35</v>
       </c>
       <c r="B399" t="s">
-        <v>35</v>
+        <v>541</v>
       </c>
       <c r="C399" t="s">
-        <v>536</v>
+        <v>35</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>537</v>
+        <v>35</v>
       </c>
       <c r="B400" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C400" t="s">
-        <v>539</v>
+        <v>35</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -7389,10 +7456,10 @@
         <v>35</v>
       </c>
       <c r="B401" t="s">
-        <v>540</v>
+        <v>35</v>
       </c>
       <c r="C401" t="s">
-        <v>35</v>
+        <v>543</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -7400,7 +7467,7 @@
         <v>35</v>
       </c>
       <c r="B402" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C402" t="s">
         <v>35</v>
@@ -7408,32 +7475,32 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>35</v>
+        <v>545</v>
       </c>
       <c r="B403" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C403" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B404" t="s">
-        <v>545</v>
+        <v>35</v>
       </c>
       <c r="C404" t="s">
-        <v>546</v>
+        <v>35</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>547</v>
+        <v>35</v>
       </c>
       <c r="B405" t="s">
-        <v>35</v>
+        <v>549</v>
       </c>
       <c r="C405" t="s">
         <v>35</v>
@@ -7441,10 +7508,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>453</v>
+        <v>35</v>
       </c>
       <c r="B406" t="s">
-        <v>35</v>
+        <v>550</v>
       </c>
       <c r="C406" t="s">
         <v>35</v>
@@ -7455,10 +7522,10 @@
         <v>35</v>
       </c>
       <c r="B407" t="s">
-        <v>548</v>
+        <v>35</v>
       </c>
       <c r="C407" t="s">
-        <v>35</v>
+        <v>551</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -7466,7 +7533,7 @@
         <v>35</v>
       </c>
       <c r="B408" t="s">
-        <v>276</v>
+        <v>552</v>
       </c>
       <c r="C408" t="s">
         <v>35</v>
@@ -7474,7 +7541,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B409" t="s">
         <v>35</v>
@@ -7485,10 +7552,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>35</v>
+        <v>554</v>
       </c>
       <c r="B410" t="s">
-        <v>550</v>
+        <v>35</v>
       </c>
       <c r="C410" t="s">
         <v>35</v>
@@ -7496,24 +7563,24 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>551</v>
+        <v>35</v>
       </c>
       <c r="B411" t="s">
         <v>35</v>
       </c>
       <c r="C411" t="s">
-        <v>35</v>
+        <v>555</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B412" t="s">
-        <v>35</v>
+        <v>557</v>
       </c>
       <c r="C412" t="s">
-        <v>35</v>
+        <v>558</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -7521,18 +7588,18 @@
         <v>35</v>
       </c>
       <c r="B413" t="s">
-        <v>35</v>
+        <v>559</v>
       </c>
       <c r="C413" t="s">
-        <v>317</v>
+        <v>35</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>553</v>
+        <v>35</v>
       </c>
       <c r="B414" t="s">
-        <v>35</v>
+        <v>560</v>
       </c>
       <c r="C414" t="s">
         <v>35</v>
@@ -7543,29 +7610,29 @@
         <v>35</v>
       </c>
       <c r="B415" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="C415" t="s">
-        <v>35</v>
+        <v>562</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B416" t="s">
-        <v>35</v>
+        <v>564</v>
       </c>
       <c r="C416" t="s">
-        <v>35</v>
+        <v>565</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>35</v>
+        <v>566</v>
       </c>
       <c r="B417" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="C417" t="s">
         <v>35</v>
@@ -7573,7 +7640,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>556</v>
+        <v>472</v>
       </c>
       <c r="B418" t="s">
         <v>35</v>
@@ -7584,10 +7651,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>557</v>
+        <v>35</v>
       </c>
       <c r="B419" t="s">
-        <v>35</v>
+        <v>567</v>
       </c>
       <c r="C419" t="s">
         <v>35</v>
@@ -7598,7 +7665,7 @@
         <v>35</v>
       </c>
       <c r="B420" t="s">
-        <v>558</v>
+        <v>295</v>
       </c>
       <c r="C420" t="s">
         <v>35</v>
@@ -7606,13 +7673,13 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>35</v>
+        <v>568</v>
       </c>
       <c r="B421" t="s">
         <v>35</v>
       </c>
       <c r="C421" t="s">
-        <v>559</v>
+        <v>35</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -7620,7 +7687,7 @@
         <v>35</v>
       </c>
       <c r="B422" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="C422" t="s">
         <v>35</v>
@@ -7628,21 +7695,21 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>35</v>
+        <v>570</v>
       </c>
       <c r="B423" t="s">
-        <v>561</v>
+        <v>35</v>
       </c>
       <c r="C423" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>35</v>
+        <v>571</v>
       </c>
       <c r="B424" t="s">
-        <v>562</v>
+        <v>35</v>
       </c>
       <c r="C424" t="s">
         <v>35</v>
@@ -7650,21 +7717,21 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>563</v>
+        <v>35</v>
       </c>
       <c r="B425" t="s">
         <v>35</v>
       </c>
       <c r="C425" t="s">
-        <v>35</v>
+        <v>336</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="B426" t="s">
-        <v>564</v>
+        <v>35</v>
       </c>
       <c r="C426" t="s">
         <v>35</v>
@@ -7675,7 +7742,7 @@
         <v>35</v>
       </c>
       <c r="B427" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="C427" t="s">
         <v>35</v>
@@ -7683,7 +7750,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B428" t="s">
         <v>35</v>
@@ -7694,10 +7761,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>567</v>
+        <v>35</v>
       </c>
       <c r="B429" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="C429" t="s">
         <v>35</v>
@@ -7705,32 +7772,32 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>35</v>
+        <v>575</v>
       </c>
       <c r="B430" t="s">
         <v>35</v>
       </c>
       <c r="C430" t="s">
-        <v>568</v>
+        <v>35</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>35</v>
+        <v>576</v>
       </c>
       <c r="B431" t="s">
-        <v>272</v>
+        <v>35</v>
       </c>
       <c r="C431" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>569</v>
+        <v>35</v>
       </c>
       <c r="B432" t="s">
-        <v>35</v>
+        <v>577</v>
       </c>
       <c r="C432" t="s">
         <v>35</v>
@@ -7738,13 +7805,13 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>570</v>
+        <v>35</v>
       </c>
       <c r="B433" t="s">
         <v>35</v>
       </c>
       <c r="C433" t="s">
-        <v>35</v>
+        <v>578</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -7752,10 +7819,10 @@
         <v>35</v>
       </c>
       <c r="B434" t="s">
-        <v>35</v>
+        <v>579</v>
       </c>
       <c r="C434" t="s">
-        <v>571</v>
+        <v>35</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -7763,10 +7830,10 @@
         <v>35</v>
       </c>
       <c r="B435" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C435" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -7774,7 +7841,7 @@
         <v>35</v>
       </c>
       <c r="B436" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C436" t="s">
         <v>35</v>
@@ -7782,10 +7849,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>35</v>
+        <v>582</v>
       </c>
       <c r="B437" t="s">
-        <v>574</v>
+        <v>35</v>
       </c>
       <c r="C437" t="s">
         <v>35</v>
@@ -7793,10 +7860,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>575</v>
+        <v>35</v>
       </c>
       <c r="B438" t="s">
-        <v>35</v>
+        <v>583</v>
       </c>
       <c r="C438" t="s">
         <v>35</v>
@@ -7804,10 +7871,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>576</v>
+        <v>35</v>
       </c>
       <c r="B439" t="s">
-        <v>35</v>
+        <v>584</v>
       </c>
       <c r="C439" t="s">
         <v>35</v>
@@ -7815,10 +7882,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>35</v>
+        <v>585</v>
       </c>
       <c r="B440" t="s">
-        <v>577</v>
+        <v>35</v>
       </c>
       <c r="C440" t="s">
         <v>35</v>
@@ -7826,7 +7893,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>79</v>
+        <v>586</v>
       </c>
       <c r="B441" t="s">
         <v>35</v>
@@ -7837,29 +7904,29 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B442" t="s">
         <v>35</v>
       </c>
       <c r="C442" t="s">
-        <v>35</v>
+        <v>587</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>578</v>
+        <v>35</v>
       </c>
       <c r="B443" t="s">
-        <v>35</v>
+        <v>291</v>
       </c>
       <c r="C443" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="B444" t="s">
         <v>35</v>
@@ -7870,10 +7937,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>35</v>
+        <v>589</v>
       </c>
       <c r="B445" t="s">
-        <v>580</v>
+        <v>35</v>
       </c>
       <c r="C445" t="s">
         <v>35</v>
@@ -7884,18 +7951,18 @@
         <v>35</v>
       </c>
       <c r="B446" t="s">
-        <v>581</v>
+        <v>35</v>
       </c>
       <c r="C446" t="s">
-        <v>35</v>
+        <v>590</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="B447" t="s">
-        <v>35</v>
+        <v>591</v>
       </c>
       <c r="C447" t="s">
         <v>35</v>
@@ -7903,10 +7970,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
       <c r="B448" t="s">
-        <v>35</v>
+        <v>592</v>
       </c>
       <c r="C448" t="s">
         <v>35</v>
@@ -7914,10 +7981,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>584</v>
+        <v>35</v>
       </c>
       <c r="B449" t="s">
-        <v>35</v>
+        <v>593</v>
       </c>
       <c r="C449" t="s">
         <v>35</v>
@@ -7925,7 +7992,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="B450" t="s">
         <v>35</v>
@@ -7936,7 +8003,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B451" t="s">
         <v>35</v>
@@ -7947,10 +8014,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>587</v>
+        <v>35</v>
       </c>
       <c r="B452" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C452" t="s">
         <v>35</v>
@@ -7958,7 +8025,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>588</v>
+        <v>98</v>
       </c>
       <c r="B453" t="s">
         <v>35</v>
@@ -7969,7 +8036,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>589</v>
+        <v>98</v>
       </c>
       <c r="B454" t="s">
         <v>35</v>
@@ -7980,7 +8047,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B455" t="s">
         <v>35</v>
@@ -7991,7 +8058,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>264</v>
+        <v>597</v>
       </c>
       <c r="B456" t="s">
         <v>35</v>
@@ -8002,10 +8069,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>591</v>
+        <v>35</v>
       </c>
       <c r="B457" t="s">
-        <v>35</v>
+        <v>598</v>
       </c>
       <c r="C457" t="s">
         <v>35</v>
@@ -8013,10 +8080,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>592</v>
+        <v>35</v>
       </c>
       <c r="B458" t="s">
-        <v>35</v>
+        <v>599</v>
       </c>
       <c r="C458" t="s">
         <v>35</v>
@@ -8024,7 +8091,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B459" t="s">
         <v>35</v>
@@ -8035,7 +8102,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="B460" t="s">
         <v>35</v>
@@ -8046,7 +8113,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B461" t="s">
         <v>35</v>
@@ -8057,7 +8124,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="B462" t="s">
         <v>35</v>
@@ -8068,7 +8135,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>124</v>
+        <v>604</v>
       </c>
       <c r="B463" t="s">
         <v>35</v>
@@ -8079,7 +8146,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>124</v>
+        <v>605</v>
       </c>
       <c r="B464" t="s">
         <v>35</v>
@@ -8090,7 +8157,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="B465" t="s">
         <v>35</v>
@@ -8101,7 +8168,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B466" t="s">
         <v>35</v>
@@ -8112,7 +8179,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="B467" t="s">
         <v>35</v>
@@ -8123,7 +8190,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>600</v>
+        <v>283</v>
       </c>
       <c r="B468" t="s">
         <v>35</v>
@@ -8134,7 +8201,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B469" t="s">
         <v>35</v>
@@ -8145,7 +8212,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>120</v>
+        <v>610</v>
       </c>
       <c r="B470" t="s">
         <v>35</v>
@@ -8156,7 +8223,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B471" t="s">
         <v>35</v>
@@ -8167,7 +8234,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B472" t="s">
         <v>35</v>
@@ -8178,7 +8245,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B473" t="s">
         <v>35</v>
@@ -8189,7 +8256,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B474" t="s">
         <v>35</v>
@@ -8200,7 +8267,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>606</v>
+        <v>143</v>
       </c>
       <c r="B475" t="s">
         <v>35</v>
@@ -8211,7 +8278,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>607</v>
+        <v>143</v>
       </c>
       <c r="B476" t="s">
         <v>35</v>
@@ -8222,7 +8289,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="B477" t="s">
         <v>35</v>
@@ -8233,7 +8300,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B478" t="s">
         <v>35</v>
@@ -8244,7 +8311,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="B479" t="s">
         <v>35</v>
@@ -8255,7 +8322,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="B480" t="s">
         <v>35</v>
@@ -8266,7 +8333,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B481" t="s">
         <v>35</v>
@@ -8277,7 +8344,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>613</v>
+        <v>139</v>
       </c>
       <c r="B482" t="s">
         <v>35</v>
@@ -8288,7 +8355,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B483" t="s">
         <v>35</v>
@@ -8299,7 +8366,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B484" t="s">
         <v>35</v>
@@ -8310,7 +8377,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B485" t="s">
         <v>35</v>
@@ -8321,7 +8388,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>399</v>
+        <v>623</v>
       </c>
       <c r="B486" t="s">
         <v>35</v>
@@ -8332,7 +8399,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="B487" t="s">
         <v>35</v>
@@ -8343,7 +8410,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="B488" t="s">
         <v>35</v>
@@ -8354,7 +8421,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="B489" t="s">
         <v>35</v>
@@ -8365,7 +8432,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="B490" t="s">
         <v>35</v>
@@ -8376,7 +8443,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="B491" t="s">
         <v>35</v>
@@ -8387,7 +8454,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="B492" t="s">
         <v>35</v>
@@ -8398,7 +8465,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>399</v>
+        <v>630</v>
       </c>
       <c r="B493" t="s">
         <v>35</v>
@@ -8409,7 +8476,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B494" t="s">
         <v>35</v>
@@ -8420,7 +8487,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="B495" t="s">
         <v>35</v>
@@ -8431,7 +8498,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B496" t="s">
         <v>35</v>
@@ -8442,7 +8509,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="B497" t="s">
         <v>35</v>
@@ -8453,7 +8520,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>627</v>
+        <v>418</v>
       </c>
       <c r="B498" t="s">
         <v>35</v>
@@ -8464,7 +8531,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B499" t="s">
         <v>35</v>
@@ -8475,7 +8542,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="B500" t="s">
         <v>35</v>
@@ -8486,7 +8553,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="B501" t="s">
         <v>35</v>
@@ -8497,7 +8564,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B502" t="s">
         <v>35</v>
@@ -8508,7 +8575,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="B503" t="s">
         <v>35</v>
@@ -8519,7 +8586,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B504" t="s">
         <v>35</v>
@@ -8530,7 +8597,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>606</v>
+        <v>418</v>
       </c>
       <c r="B505" t="s">
         <v>35</v>
@@ -8541,7 +8608,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B506" t="s">
         <v>35</v>
@@ -8552,7 +8619,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B507" t="s">
         <v>35</v>
@@ -8563,7 +8630,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="B508" t="s">
         <v>35</v>
@@ -8574,7 +8641,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B509" t="s">
         <v>35</v>
@@ -8585,7 +8652,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B510" t="s">
         <v>35</v>
@@ -8596,7 +8663,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="B511" t="s">
         <v>35</v>
@@ -8607,7 +8674,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="B512" t="s">
         <v>35</v>
@@ -8618,7 +8685,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B513" t="s">
         <v>35</v>
@@ -8629,7 +8696,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B514" t="s">
         <v>35</v>
@@ -8640,7 +8707,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="B515" t="s">
         <v>35</v>
@@ -8651,7 +8718,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B516" t="s">
         <v>35</v>
@@ -8662,7 +8729,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="B517" t="s">
         <v>35</v>
@@ -8673,7 +8740,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B518" t="s">
         <v>35</v>
@@ -8684,7 +8751,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B519" t="s">
         <v>35</v>
@@ -8695,7 +8762,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B520" t="s">
         <v>35</v>
@@ -8706,7 +8773,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B521" t="s">
         <v>35</v>
@@ -8717,7 +8784,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B522" t="s">
         <v>35</v>
@@ -8728,7 +8795,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B523" t="s">
         <v>35</v>
@@ -8739,7 +8806,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B524" t="s">
         <v>35</v>
@@ -8750,7 +8817,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B525" t="s">
         <v>35</v>
@@ -8761,7 +8828,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B526" t="s">
         <v>35</v>
@@ -8772,7 +8839,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>124</v>
+        <v>661</v>
       </c>
       <c r="B527" t="s">
         <v>35</v>
@@ -8783,7 +8850,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>124</v>
+        <v>662</v>
       </c>
       <c r="B528" t="s">
         <v>35</v>
@@ -8794,7 +8861,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B529" t="s">
         <v>35</v>
@@ -8805,7 +8872,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="B530" t="s">
         <v>35</v>
@@ -8816,7 +8883,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B531" t="s">
         <v>35</v>
@@ -8827,7 +8894,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>578</v>
+        <v>666</v>
       </c>
       <c r="B532" t="s">
         <v>35</v>
@@ -8838,7 +8905,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="B533" t="s">
         <v>35</v>
@@ -8849,7 +8916,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="B534" t="s">
         <v>35</v>
@@ -8860,7 +8927,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="B535" t="s">
         <v>35</v>
@@ -8871,7 +8938,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="B536" t="s">
         <v>35</v>
@@ -8882,7 +8949,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B537" t="s">
         <v>35</v>
@@ -8893,7 +8960,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B538" t="s">
         <v>35</v>
@@ -8904,7 +8971,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>663</v>
+        <v>143</v>
       </c>
       <c r="B539" t="s">
         <v>35</v>
@@ -8915,7 +8982,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>316</v>
+        <v>143</v>
       </c>
       <c r="B540" t="s">
         <v>35</v>
@@ -8926,7 +8993,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B541" t="s">
         <v>35</v>
@@ -8937,7 +9004,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B542" t="s">
         <v>35</v>
@@ -8948,7 +9015,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B543" t="s">
         <v>35</v>
@@ -8959,7 +9026,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="B544" t="s">
         <v>35</v>
@@ -8970,7 +9037,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B545" t="s">
         <v>35</v>
@@ -8981,7 +9048,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="B546" t="s">
         <v>35</v>
@@ -8992,7 +9059,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B547" t="s">
         <v>35</v>
@@ -9003,7 +9070,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="B548" t="s">
         <v>35</v>
@@ -9014,7 +9081,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B549" t="s">
         <v>35</v>
@@ -9025,7 +9092,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="B550" t="s">
         <v>35</v>
@@ -9036,7 +9103,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="B551" t="s">
         <v>35</v>
@@ -9047,7 +9114,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>675</v>
+        <v>335</v>
       </c>
       <c r="B552" t="s">
         <v>35</v>
@@ -9058,7 +9125,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B553" t="s">
         <v>35</v>
@@ -9069,7 +9136,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B554" t="s">
         <v>35</v>
@@ -9080,7 +9147,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B555" t="s">
         <v>35</v>
@@ -9091,7 +9158,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B556" t="s">
         <v>35</v>
@@ -9102,7 +9169,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>120</v>
+        <v>686</v>
       </c>
       <c r="B557" t="s">
         <v>35</v>
@@ -9113,7 +9180,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B558" t="s">
         <v>35</v>
@@ -9124,7 +9191,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B559" t="s">
         <v>35</v>
@@ -9135,7 +9202,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B560" t="s">
         <v>35</v>
@@ -9146,7 +9213,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B561" t="s">
         <v>35</v>
@@ -9157,7 +9224,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="B562" t="s">
         <v>35</v>
@@ -9168,7 +9235,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="B563" t="s">
         <v>35</v>
@@ -9179,7 +9246,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B564" t="s">
         <v>35</v>
@@ -9190,7 +9257,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B565" t="s">
         <v>35</v>
@@ -9201,7 +9268,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B566" t="s">
         <v>35</v>
@@ -9212,7 +9279,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="B567" t="s">
         <v>35</v>
@@ -9223,7 +9290,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B568" t="s">
         <v>35</v>
@@ -9234,7 +9301,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>691</v>
+        <v>139</v>
       </c>
       <c r="B569" t="s">
         <v>35</v>
@@ -9245,7 +9312,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B570" t="s">
         <v>35</v>
@@ -9256,7 +9323,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B571" t="s">
         <v>35</v>
@@ -9267,7 +9334,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="B572" t="s">
         <v>35</v>
@@ -9278,7 +9345,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B573" t="s">
         <v>35</v>
@@ -9289,7 +9356,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>650</v>
+        <v>702</v>
       </c>
       <c r="B574" t="s">
         <v>35</v>
@@ -9300,7 +9367,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B575" t="s">
         <v>35</v>
@@ -9311,7 +9378,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B576" t="s">
         <v>35</v>
@@ -9322,7 +9389,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="B577" t="s">
         <v>35</v>
@@ -9333,7 +9400,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>308</v>
+        <v>706</v>
       </c>
       <c r="B578" t="s">
         <v>35</v>
@@ -9344,7 +9411,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B579" t="s">
         <v>35</v>
@@ -9355,7 +9422,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>308</v>
+        <v>708</v>
       </c>
       <c r="B580" t="s">
         <v>35</v>
@@ -9366,7 +9433,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>262</v>
+        <v>709</v>
       </c>
       <c r="B581" t="s">
         <v>35</v>
@@ -9377,7 +9444,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>262</v>
+        <v>710</v>
       </c>
       <c r="B582" t="s">
         <v>35</v>
@@ -9388,7 +9455,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="B583" t="s">
         <v>35</v>
@@ -9399,7 +9466,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>700</v>
+        <v>98</v>
       </c>
       <c r="B584" t="s">
         <v>35</v>
@@ -9410,7 +9477,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="B585" t="s">
         <v>35</v>
@@ -9421,7 +9488,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="B586" t="s">
         <v>35</v>
@@ -9432,7 +9499,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B587" t="s">
         <v>35</v>
@@ -9443,7 +9510,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B588" t="s">
         <v>35</v>
@@ -9454,7 +9521,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B589" t="s">
         <v>35</v>
@@ -9465,7 +9532,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>706</v>
+        <v>327</v>
       </c>
       <c r="B590" t="s">
         <v>35</v>
@@ -9476,7 +9543,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>532</v>
+        <v>716</v>
       </c>
       <c r="B591" t="s">
         <v>35</v>
@@ -9487,7 +9554,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>707</v>
+        <v>327</v>
       </c>
       <c r="B592" t="s">
         <v>35</v>
@@ -9498,7 +9565,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>708</v>
+        <v>281</v>
       </c>
       <c r="B593" t="s">
         <v>35</v>
@@ -9509,7 +9576,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>709</v>
+        <v>281</v>
       </c>
       <c r="B594" t="s">
         <v>35</v>
@@ -9520,7 +9587,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="B595" t="s">
         <v>35</v>
@@ -9531,7 +9598,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="B596" t="s">
         <v>35</v>
@@ -9542,7 +9609,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B597" t="s">
         <v>35</v>
@@ -9553,7 +9620,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="B598" t="s">
         <v>35</v>
@@ -9564,7 +9631,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B599" t="s">
         <v>35</v>
@@ -9575,7 +9642,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>124</v>
+        <v>722</v>
       </c>
       <c r="B600" t="s">
         <v>35</v>
@@ -9586,7 +9653,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B601" t="s">
         <v>35</v>
@@ -9597,7 +9664,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B602" t="s">
         <v>35</v>
@@ -9608,7 +9675,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>717</v>
+        <v>551</v>
       </c>
       <c r="B603" t="s">
         <v>35</v>
@@ -9619,7 +9686,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B604" t="s">
         <v>35</v>
@@ -9630,7 +9697,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B605" t="s">
         <v>35</v>
@@ -9641,7 +9708,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B606" t="s">
         <v>35</v>
@@ -9652,7 +9719,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="B607" t="s">
         <v>35</v>
@@ -9663,7 +9730,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B608" t="s">
         <v>35</v>
@@ -9674,7 +9741,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B609" t="s">
         <v>35</v>
@@ -9685,7 +9752,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B610" t="s">
         <v>35</v>
@@ -9696,7 +9763,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="B611" t="s">
         <v>35</v>
@@ -9707,7 +9774,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>726</v>
+        <v>143</v>
       </c>
       <c r="B612" t="s">
         <v>35</v>
@@ -9718,7 +9785,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="B613" t="s">
         <v>35</v>
@@ -9729,7 +9796,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B614" t="s">
         <v>35</v>
@@ -9740,7 +9807,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B615" t="s">
         <v>35</v>
@@ -9751,7 +9818,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B616" t="s">
         <v>35</v>
@@ -9762,7 +9829,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B617" t="s">
         <v>35</v>
@@ -9773,7 +9840,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B618" t="s">
         <v>35</v>
@@ -9784,7 +9851,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B619" t="s">
         <v>35</v>
@@ -9795,7 +9862,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B620" t="s">
         <v>35</v>
@@ -9806,7 +9873,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B621" t="s">
         <v>35</v>
@@ -9817,7 +9884,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B622" t="s">
         <v>35</v>
@@ -9828,7 +9895,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B623" t="s">
         <v>35</v>
@@ -9839,7 +9906,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B624" t="s">
         <v>35</v>
@@ -9850,7 +9917,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="B625" t="s">
         <v>35</v>
@@ -9861,7 +9928,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B626" t="s">
         <v>35</v>
@@ -9872,7 +9939,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="B627" t="s">
         <v>35</v>
@@ -9883,7 +9950,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B628" t="s">
         <v>35</v>
@@ -9894,7 +9961,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B629" t="s">
         <v>35</v>
@@ -9905,7 +9972,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="B630" t="s">
         <v>35</v>
@@ -9916,7 +9983,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B631" t="s">
         <v>35</v>
@@ -9927,7 +9994,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B632" t="s">
         <v>35</v>
@@ -9938,7 +10005,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="B633" t="s">
         <v>35</v>
@@ -9949,7 +10016,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B634" t="s">
         <v>35</v>
@@ -9960,7 +10027,7 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B635" t="s">
         <v>35</v>
@@ -9971,7 +10038,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="B636" t="s">
         <v>35</v>
@@ -9982,7 +10049,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B637" t="s">
         <v>35</v>
@@ -9993,7 +10060,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="B638" t="s">
         <v>35</v>
@@ -10004,7 +10071,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B639" t="s">
         <v>35</v>
@@ -10015,7 +10082,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="B640" t="s">
         <v>35</v>
@@ -10026,7 +10093,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="B641" t="s">
         <v>35</v>
@@ -10037,7 +10104,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B642" t="s">
         <v>35</v>
@@ -10048,7 +10115,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>456</v>
+        <v>763</v>
       </c>
       <c r="B643" t="s">
         <v>35</v>
@@ -10059,7 +10126,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="B644" t="s">
         <v>35</v>
@@ -10070,7 +10137,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="B645" t="s">
         <v>35</v>
@@ -10081,7 +10148,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="B646" t="s">
         <v>35</v>
@@ -10092,7 +10159,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B647" t="s">
         <v>35</v>
@@ -10103,7 +10170,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="B648" t="s">
         <v>35</v>
@@ -10114,7 +10181,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="B649" t="s">
         <v>35</v>
@@ -10125,7 +10192,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="B650" t="s">
         <v>35</v>
@@ -10136,7 +10203,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B651" t="s">
         <v>35</v>
@@ -10147,7 +10214,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="B652" t="s">
         <v>35</v>
@@ -10158,7 +10225,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B653" t="s">
         <v>35</v>
@@ -10169,7 +10236,7 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="B654" t="s">
         <v>35</v>
@@ -10180,7 +10247,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>768</v>
+        <v>475</v>
       </c>
       <c r="B655" t="s">
         <v>35</v>
@@ -10191,7 +10258,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="B656" t="s">
         <v>35</v>
@@ -10202,7 +10269,7 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B657" t="s">
         <v>35</v>
@@ -10213,7 +10280,7 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B658" t="s">
         <v>35</v>
@@ -10224,7 +10291,7 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="B659" t="s">
         <v>35</v>
@@ -10235,7 +10302,7 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B660" t="s">
         <v>35</v>
@@ -10246,7 +10313,7 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B661" t="s">
         <v>35</v>
@@ -10257,7 +10324,7 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>262</v>
+        <v>781</v>
       </c>
       <c r="B662" t="s">
         <v>35</v>
@@ -10268,7 +10335,7 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="B663" t="s">
         <v>35</v>
@@ -10279,7 +10346,7 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B664" t="s">
         <v>35</v>
@@ -10290,7 +10357,7 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B665" t="s">
         <v>35</v>
@@ -10301,7 +10368,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="B666" t="s">
         <v>35</v>
@@ -10312,7 +10379,7 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B667" t="s">
         <v>35</v>
@@ -10323,7 +10390,7 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B668" t="s">
         <v>35</v>
@@ -10334,7 +10401,7 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B669" t="s">
         <v>35</v>
@@ -10345,7 +10412,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B670" t="s">
         <v>35</v>
@@ -10356,7 +10423,7 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="B671" t="s">
         <v>35</v>
@@ -10367,7 +10434,7 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B672" t="s">
         <v>35</v>
@@ -10378,7 +10445,7 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B673" t="s">
         <v>35</v>
@@ -10389,7 +10456,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>786</v>
+        <v>281</v>
       </c>
       <c r="B674" t="s">
         <v>35</v>
@@ -10400,7 +10467,7 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="B675" t="s">
         <v>35</v>
@@ -10411,7 +10478,7 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B676" t="s">
         <v>35</v>
@@ -10422,7 +10489,7 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B677" t="s">
         <v>35</v>
@@ -10433,7 +10500,7 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="B678" t="s">
         <v>35</v>
@@ -10444,7 +10511,7 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="B679" t="s">
         <v>35</v>
@@ -10455,7 +10522,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B680" t="s">
         <v>35</v>
@@ -10466,7 +10533,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>282</v>
+        <v>799</v>
       </c>
       <c r="B681" t="s">
         <v>35</v>
@@ -10477,7 +10544,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>288</v>
+        <v>800</v>
       </c>
       <c r="B682" t="s">
         <v>35</v>
@@ -10488,7 +10555,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B683" t="s">
         <v>35</v>
@@ -10499,7 +10566,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="B684" t="s">
         <v>35</v>
@@ -10510,7 +10577,7 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="B685" t="s">
         <v>35</v>
@@ -10521,7 +10588,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="B686" t="s">
         <v>35</v>
@@ -10532,7 +10599,7 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="B687" t="s">
         <v>35</v>
@@ -10543,7 +10610,7 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>153</v>
+        <v>806</v>
       </c>
       <c r="B688" t="s">
         <v>35</v>
@@ -10554,7 +10621,7 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="B689" t="s">
         <v>35</v>
@@ -10565,7 +10632,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B690" t="s">
         <v>35</v>
@@ -10576,7 +10643,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="B691" t="s">
         <v>35</v>
@@ -10587,7 +10654,7 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="B692" t="s">
         <v>35</v>
@@ -10598,7 +10665,7 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>802</v>
+        <v>301</v>
       </c>
       <c r="B693" t="s">
         <v>35</v>
@@ -10609,7 +10676,7 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>803</v>
+        <v>307</v>
       </c>
       <c r="B694" t="s">
         <v>35</v>
@@ -10620,7 +10687,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="B695" t="s">
         <v>35</v>
@@ -10631,7 +10698,7 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="B696" t="s">
         <v>35</v>
@@ -10642,7 +10709,7 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B697" t="s">
         <v>35</v>
@@ -10653,7 +10720,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="B698" t="s">
         <v>35</v>
@@ -10664,7 +10731,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="B699" t="s">
         <v>35</v>
@@ -10675,7 +10742,7 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>809</v>
+        <v>172</v>
       </c>
       <c r="B700" t="s">
         <v>35</v>
@@ -10686,7 +10753,7 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B701" t="s">
         <v>35</v>
@@ -10697,7 +10764,7 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="B702" t="s">
         <v>35</v>
@@ -10708,7 +10775,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="B703" t="s">
         <v>35</v>
@@ -10719,7 +10786,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="B704" t="s">
         <v>35</v>
@@ -10730,7 +10797,7 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="B705" t="s">
         <v>35</v>
@@ -10741,7 +10808,7 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="B706" t="s">
         <v>35</v>
@@ -10752,7 +10819,7 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B707" t="s">
         <v>35</v>
@@ -10763,7 +10830,7 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B708" t="s">
         <v>35</v>
@@ -10774,7 +10841,7 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="B709" t="s">
         <v>35</v>
@@ -10785,7 +10852,7 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B710" t="s">
         <v>35</v>
@@ -10796,7 +10863,7 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B711" t="s">
         <v>35</v>
@@ -10807,7 +10874,7 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B712" t="s">
         <v>35</v>
@@ -10818,7 +10885,7 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>399</v>
+        <v>828</v>
       </c>
       <c r="B713" t="s">
         <v>35</v>
@@ -10829,7 +10896,7 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B714" t="s">
         <v>35</v>
@@ -10840,7 +10907,7 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B715" t="s">
         <v>35</v>
@@ -10851,7 +10918,7 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B716" t="s">
         <v>35</v>
@@ -10862,7 +10929,7 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B717" t="s">
         <v>35</v>
@@ -10873,7 +10940,7 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B718" t="s">
         <v>35</v>
@@ -10884,7 +10951,7 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="B719" t="s">
         <v>35</v>
@@ -10895,7 +10962,7 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
       <c r="B720" t="s">
         <v>35</v>
@@ -10906,7 +10973,7 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B721" t="s">
         <v>35</v>
@@ -10917,7 +10984,7 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="B722" t="s">
         <v>35</v>
@@ -10928,7 +10995,7 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="B723" t="s">
         <v>35</v>
@@ -10939,7 +11006,7 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="B724" t="s">
         <v>35</v>
@@ -10950,7 +11017,7 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>833</v>
+        <v>418</v>
       </c>
       <c r="B725" t="s">
         <v>35</v>
@@ -10961,7 +11028,7 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B726" t="s">
         <v>35</v>
@@ -10972,7 +11039,7 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="B727" t="s">
         <v>35</v>
@@ -10983,7 +11050,7 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B728" t="s">
         <v>35</v>
@@ -10994,7 +11061,7 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B729" t="s">
         <v>35</v>
@@ -11005,7 +11072,7 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>168</v>
+        <v>844</v>
       </c>
       <c r="B730" t="s">
         <v>35</v>
@@ -11016,7 +11083,7 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>626</v>
+        <v>845</v>
       </c>
       <c r="B731" t="s">
         <v>35</v>
@@ -11025,14 +11092,136 @@
         <v>35</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>846</v>
+      </c>
+      <c r="B732" t="s">
+        <v>35</v>
+      </c>
+      <c r="C732" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>847</v>
+      </c>
+      <c r="B733" t="s">
+        <v>35</v>
+      </c>
+      <c r="C733" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+      <c r="B734" t="s">
+        <v>35</v>
+      </c>
+      <c r="C734" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>839</v>
+        <v>849</v>
+      </c>
+      <c r="B735" t="s">
+        <v>35</v>
+      </c>
+      <c r="C735" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>850</v>
+      </c>
+      <c r="B736" t="s">
+        <v>35</v>
+      </c>
+      <c r="C736" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>851</v>
+      </c>
+      <c r="B737" t="s">
+        <v>35</v>
+      </c>
+      <c r="C737" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>852</v>
+      </c>
+      <c r="B738" t="s">
+        <v>35</v>
+      </c>
+      <c r="C738" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>853</v>
+      </c>
+      <c r="B739" t="s">
+        <v>35</v>
+      </c>
+      <c r="C739" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>854</v>
+      </c>
+      <c r="B740" t="s">
+        <v>35</v>
+      </c>
+      <c r="C740" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>855</v>
+      </c>
+      <c r="B741" t="s">
+        <v>35</v>
+      </c>
+      <c r="C741" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>187</v>
+      </c>
+      <c r="B742" t="s">
+        <v>35</v>
+      </c>
+      <c r="C742" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>644</v>
+      </c>
+      <c r="B743" t="s">
+        <v>35</v>
+      </c>
+      <c r="C743" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
